--- a/data/test_cases/demo_cases.xlsx
+++ b/data/test_cases/demo_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai_code\ai-api-test-framework\data\test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DDDBE9-F80E-4608-89DB-394F07FC5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258A8AC8-A5D0-4A94-A07F-EBA210042997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1050" windowWidth="30690" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>测试用例ID</t>
   </si>
@@ -100,6 +100,29 @@
   <si>
     <t>{
     "code": "SUCCESS"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">最大响应时间	</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "concurrent_users": 50,
+  "duration": 60,
+  "ramp_up": 10,
+  "target_tps": 100,
+  "thresholds": {
+    "avg_time": 2.0,
+    "p95_time": 3.0,
+    "p99_time": 5.0,
+    "success_rate": 0.99
+  }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,13 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,9 +513,10 @@
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="30" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +553,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -563,6 +596,12 @@
       </c>
       <c r="L2" s="2">
         <v>200</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
